--- a/Daten zum Laden/BikeBuyers_Vorverarbeitung für JSON.xlsx
+++ b/Daten zum Laden/BikeBuyers_Vorverarbeitung für JSON.xlsx
@@ -3409,8 +3409,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="L358" sqref="L358"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1009" sqref="J1009"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3523,7 +3523,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>25597</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>19364</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>19280</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20870</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>25598</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>17841</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>16466</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>17891</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>16259</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>29380</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>23986</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14939</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>28906</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>12808</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>25502</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>14927</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>29355</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>14813</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>20828</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>26941</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>17191</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>26886</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>28436</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>17197</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>23940</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>19441</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>26829</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>28395</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>21006</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>24140</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>24065</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>27775</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>20970</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>26818</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>19477</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>22500</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14832</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>22464</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>19475</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>14798</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>25605</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>25460</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>19442</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>12212</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>28918</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>18151</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>19482</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>26944</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>15682</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>15657</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>11415</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>22633</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>25649</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>19299</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>25553</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>12833</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>28915</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>22830</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>14777</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>11340</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>25693</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>23908</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>11249</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>20839</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>14164</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>14193</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>17964</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>21039</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>12231</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>24061</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>12284</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>24201</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>16390</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>24187</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>16406</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>20923</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>26928</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>14154</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>19066</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>16410</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>27760</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>23780</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>12663</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>17894</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>25651</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>24121</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>13572</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>26354</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>23608</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>22518</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>13687</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>19305</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>22636</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>25752</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>12510</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>20977</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>13586</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>17978</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>17793</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>14926</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>25792</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>22439</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>20171</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>17960</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>11576</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>19255</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>18153</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>27824</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>24093</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>21108</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>16559</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>14791</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>17754</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>16549</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>22634</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>15665</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>22610</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>26984</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>28521</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>26415</v>
       </c>
@@ -24443,7 +24443,7 @@
   <autoFilter ref="A1:F1001">
     <filterColumn colId="1">
       <filters>
-        <filter val="0-1 Miles"/>
+        <filter val="10+ Miles"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -24453,7 +24453,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="Yes"/>
+        <filter val="No"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Daten zum Laden/BikeBuyers_Vorverarbeitung für JSON.xlsx
+++ b/Daten zum Laden/BikeBuyers_Vorverarbeitung für JSON.xlsx
@@ -3410,7 +3410,7 @@
   <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1009" sqref="J1009"/>
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4610,9 +4610,9 @@
       <c r="F57" t="s">
         <v>69</v>
       </c>
-      <c r="I57" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="I57" t="str">
+        <f>CONCATENATE("{""data"": { ""id"":""", A57,""" }},")</f>
+        <v>{"data": { "id":"28906" }},</v>
       </c>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
